--- a/public/report/TripReport.xlsx
+++ b/public/report/TripReport.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
   <si>
     <t>id</t>
   </si>
@@ -41,6 +41,12 @@
     <t>price</t>
   </si>
   <si>
+    <t>Phnom Penh</t>
+  </si>
+  <si>
+    <t>Siem Reap</t>
+  </si>
+  <si>
     <t>11 August 2022</t>
   </si>
   <si>
@@ -50,6 +56,12 @@
     <t>11:35 AM</t>
   </si>
   <si>
+    <t>Sakura</t>
+  </si>
+  <si>
+    <t>Prey Veng</t>
+  </si>
+  <si>
     <t>25 August 2022</t>
   </si>
   <si>
@@ -59,6 +71,12 @@
     <t>12:25 AM</t>
   </si>
   <si>
+    <t>Kuma</t>
+  </si>
+  <si>
+    <t>Koh Kong</t>
+  </si>
+  <si>
     <t>26 August 2022</t>
   </si>
   <si>
@@ -68,6 +86,9 @@
     <t>10:40 AM</t>
   </si>
   <si>
+    <t>Hina</t>
+  </si>
+  <si>
     <t>28 August 2022</t>
   </si>
   <si>
@@ -77,12 +98,24 @@
     <t>10:55 AM</t>
   </si>
   <si>
+    <t>Kakara</t>
+  </si>
+  <si>
+    <t>Kampong Cham</t>
+  </si>
+  <si>
     <t>11:43 AM</t>
   </si>
   <si>
     <t>01:41 PM</t>
   </si>
   <si>
+    <t>Yoshita</t>
+  </si>
+  <si>
+    <t>Kampot</t>
+  </si>
+  <si>
     <t>29 August 2022</t>
   </si>
   <si>
@@ -108,6 +141,9 @@
   </si>
   <si>
     <t>12:35 AM</t>
+  </si>
+  <si>
+    <t>Tasuki</t>
   </si>
 </sst>
 </file>
@@ -484,22 +520,24 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2">
         <v>10.0</v>
       </c>
@@ -508,22 +546,24 @@
       <c r="A3">
         <v>13</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3"/>
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
       <c r="H3">
         <v>10.0</v>
       </c>
@@ -532,22 +572,24 @@
       <c r="A4">
         <v>14</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>12</v>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4"/>
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
       <c r="H4">
         <v>10.0</v>
       </c>
@@ -556,22 +598,24 @@
       <c r="A5">
         <v>16</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>12</v>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5"/>
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
       <c r="H5">
         <v>10.0</v>
       </c>
@@ -580,22 +624,24 @@
       <c r="A6">
         <v>17</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>13</v>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6"/>
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
       <c r="H6">
         <v>7.0</v>
       </c>
@@ -604,22 +650,24 @@
       <c r="A7">
         <v>18</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>15</v>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" t="s">
         <v>23</v>
       </c>
-      <c r="F7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7"/>
       <c r="H7">
         <v>7.0</v>
       </c>
@@ -628,22 +676,24 @@
       <c r="A8">
         <v>19</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8"/>
+        <v>38</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
       <c r="H8">
         <v>10.0</v>
       </c>
@@ -652,22 +702,24 @@
       <c r="A9">
         <v>20</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>12</v>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9"/>
+        <v>41</v>
+      </c>
+      <c r="G9" t="s">
+        <v>42</v>
+      </c>
       <c r="H9">
         <v>10.0</v>
       </c>

--- a/public/report/TripReport.xlsx
+++ b/public/report/TripReport.xlsx
@@ -15,15 +15,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>origin_province_id</t>
-  </si>
-  <si>
-    <t>destination_province_id</t>
+    <t>origin</t>
+  </si>
+  <si>
+    <t>destination</t>
   </si>
   <si>
     <t>dep_date</t>
@@ -44,106 +44,52 @@
     <t>Phnom Penh</t>
   </si>
   <si>
-    <t>Siem Reap</t>
-  </si>
-  <si>
-    <t>11 August 2022</t>
-  </si>
-  <si>
-    <t>10:35 AM</t>
-  </si>
-  <si>
-    <t>11:35 AM</t>
-  </si>
-  <si>
-    <t>Sakura</t>
-  </si>
-  <si>
-    <t>Prey Veng</t>
-  </si>
-  <si>
-    <t>25 August 2022</t>
-  </si>
-  <si>
-    <t>11:25 AM</t>
-  </si>
-  <si>
-    <t>12:25 AM</t>
-  </si>
-  <si>
-    <t>Kuma</t>
-  </si>
-  <si>
-    <t>Koh Kong</t>
-  </si>
-  <si>
-    <t>26 August 2022</t>
-  </si>
-  <si>
-    <t>08:40 AM</t>
-  </si>
-  <si>
-    <t>10:40 AM</t>
+    <t>Kampong Cham</t>
+  </si>
+  <si>
+    <t>03 September 2022</t>
+  </si>
+  <si>
+    <t>01:50 PM</t>
+  </si>
+  <si>
+    <t>03:30 PM</t>
   </si>
   <si>
     <t>Hina</t>
   </si>
   <si>
-    <t>28 August 2022</t>
-  </si>
-  <si>
-    <t>10:54 AM</t>
-  </si>
-  <si>
-    <t>10:55 AM</t>
-  </si>
-  <si>
-    <t>Kakara</t>
-  </si>
-  <si>
-    <t>Kampong Cham</t>
-  </si>
-  <si>
-    <t>11:43 AM</t>
-  </si>
-  <si>
-    <t>01:41 PM</t>
+    <t>Kampot</t>
+  </si>
+  <si>
+    <t>02 September 2022</t>
+  </si>
+  <si>
+    <t>11:20 AM</t>
+  </si>
+  <si>
+    <t>01:20 AM</t>
+  </si>
+  <si>
+    <t>Tasuki</t>
+  </si>
+  <si>
+    <t>Kandal</t>
+  </si>
+  <si>
+    <t>Preah Sinhanouk</t>
+  </si>
+  <si>
+    <t>04 September 2022</t>
+  </si>
+  <si>
+    <t>07:15 AM</t>
+  </si>
+  <si>
+    <t>11:30 AM</t>
   </si>
   <si>
     <t>Yoshita</t>
-  </si>
-  <si>
-    <t>Kampot</t>
-  </si>
-  <si>
-    <t>29 August 2022</t>
-  </si>
-  <si>
-    <t>06:15 PM</t>
-  </si>
-  <si>
-    <t>08:40 PM</t>
-  </si>
-  <si>
-    <t>31 August 2022</t>
-  </si>
-  <si>
-    <t>10:45 AM</t>
-  </si>
-  <si>
-    <t>01:45 PM</t>
-  </si>
-  <si>
-    <t>01 September 2022</t>
-  </si>
-  <si>
-    <t>09:35 AM</t>
-  </si>
-  <si>
-    <t>12:35 AM</t>
-  </si>
-  <si>
-    <t>Tasuki</t>
   </si>
 </sst>
 </file>
@@ -482,7 +428,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,7 +464,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -539,18 +485,18 @@
         <v>13</v>
       </c>
       <c r="H2">
-        <v>10.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
@@ -565,162 +511,32 @@
         <v>18</v>
       </c>
       <c r="H3">
-        <v>10.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H4">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8">
-        <v>19</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9">
         <v>10.0</v>
       </c>
     </row>

--- a/public/report/TripReport.xlsx
+++ b/public/report/TripReport.xlsx
@@ -47,7 +47,7 @@
     <t>Kampong Cham</t>
   </si>
   <si>
-    <t>03 September 2022</t>
+    <t>03 Sep 2022</t>
   </si>
   <si>
     <t>01:50 PM</t>
@@ -62,7 +62,7 @@
     <t>Kampot</t>
   </si>
   <si>
-    <t>02 September 2022</t>
+    <t>02 Sep 2022</t>
   </si>
   <si>
     <t>11:20 AM</t>
@@ -80,7 +80,7 @@
     <t>Preah Sinhanouk</t>
   </si>
   <si>
-    <t>04 September 2022</t>
+    <t>04 Sep 2022</t>
   </si>
   <si>
     <t>07:15 AM</t>

--- a/public/report/TripReport.xlsx
+++ b/public/report/TripReport.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
   <si>
     <t>id</t>
   </si>
@@ -90,6 +90,27 @@
   </si>
   <si>
     <t>Yoshita</t>
+  </si>
+  <si>
+    <t>Siem Reap</t>
+  </si>
+  <si>
+    <t>06 Sep 2022</t>
+  </si>
+  <si>
+    <t>08:20 AM</t>
+  </si>
+  <si>
+    <t>10:20 AM</t>
+  </si>
+  <si>
+    <t>10:30 AM</t>
+  </si>
+  <si>
+    <t>12:50 AM</t>
+  </si>
+  <si>
+    <t>Kuma</t>
   </si>
 </sst>
 </file>
@@ -428,7 +449,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,6 +559,58 @@
       </c>
       <c r="H4">
         <v>10.0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6">
+        <v>7.0</v>
       </c>
     </row>
   </sheetData>

--- a/public/report/TripReport.xlsx
+++ b/public/report/TripReport.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -59,58 +59,124 @@
     <t>Hina</t>
   </si>
   <si>
+    <t>Kandal</t>
+  </si>
+  <si>
+    <t>Preah Sinhanouk</t>
+  </si>
+  <si>
+    <t>04 Sep 2022</t>
+  </si>
+  <si>
+    <t>07:15 AM</t>
+  </si>
+  <si>
+    <t>11:30 AM</t>
+  </si>
+  <si>
+    <t>Yoshita</t>
+  </si>
+  <si>
+    <t>Siem Reap</t>
+  </si>
+  <si>
+    <t>06 Sep 2022</t>
+  </si>
+  <si>
+    <t>08:20 AM</t>
+  </si>
+  <si>
+    <t>10:20 AM</t>
+  </si>
+  <si>
     <t>Kampot</t>
   </si>
   <si>
-    <t>02 Sep 2022</t>
-  </si>
-  <si>
-    <t>11:20 AM</t>
-  </si>
-  <si>
-    <t>01:20 AM</t>
+    <t>10:30 AM</t>
+  </si>
+  <si>
+    <t>12:50 AM</t>
+  </si>
+  <si>
+    <t>Kuma</t>
+  </si>
+  <si>
+    <t>Koh Kong</t>
+  </si>
+  <si>
+    <t>09 Sep 2022</t>
+  </si>
+  <si>
+    <t>02:50 PM</t>
+  </si>
+  <si>
+    <t>05:00 PM</t>
+  </si>
+  <si>
+    <t>Prey Veng</t>
+  </si>
+  <si>
+    <t>08 Sep 2022</t>
+  </si>
+  <si>
+    <t>04:50 PM</t>
+  </si>
+  <si>
+    <t>06:50 PM</t>
+  </si>
+  <si>
+    <t>11:55 AM</t>
+  </si>
+  <si>
+    <t>01:55 PM</t>
   </si>
   <si>
     <t>Tasuki</t>
   </si>
   <si>
-    <t>Kandal</t>
-  </si>
-  <si>
-    <t>Preah Sinhanouk</t>
-  </si>
-  <si>
-    <t>04 Sep 2022</t>
-  </si>
-  <si>
-    <t>07:15 AM</t>
-  </si>
-  <si>
-    <t>11:30 AM</t>
-  </si>
-  <si>
-    <t>Yoshita</t>
-  </si>
-  <si>
-    <t>Siem Reap</t>
-  </si>
-  <si>
-    <t>06 Sep 2022</t>
-  </si>
-  <si>
-    <t>08:20 AM</t>
-  </si>
-  <si>
-    <t>10:20 AM</t>
-  </si>
-  <si>
-    <t>10:30 AM</t>
-  </si>
-  <si>
-    <t>12:50 AM</t>
-  </si>
-  <si>
-    <t>Kuma</t>
+    <t>10 Sep 2022</t>
+  </si>
+  <si>
+    <t>10:00 AM</t>
+  </si>
+  <si>
+    <t>12:00 PM</t>
+  </si>
+  <si>
+    <t>11 Sep 2022</t>
+  </si>
+  <si>
+    <t>01:00 PM</t>
+  </si>
+  <si>
+    <t>04:00 PM</t>
+  </si>
+  <si>
+    <t>Sakura</t>
+  </si>
+  <si>
+    <t>12 Sep 2022</t>
+  </si>
+  <si>
+    <t>10:10 AM</t>
+  </si>
+  <si>
+    <t>13 Sep 2022</t>
+  </si>
+  <si>
+    <t>02:40 PM</t>
+  </si>
+  <si>
+    <t>15 Sep 2022</t>
+  </si>
+  <si>
+    <t>08:40 AM</t>
+  </si>
+  <si>
+    <t>11:40 AM</t>
+  </si>
+  <si>
+    <t>11:45 AM</t>
   </si>
 </sst>
 </file>
@@ -449,7 +515,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,36 +577,36 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H3">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
@@ -555,33 +621,33 @@
         <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H4">
-        <v>10.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>26</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>27</v>
-      </c>
-      <c r="F5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
       </c>
       <c r="H5">
         <v>7.0</v>
@@ -589,28 +655,262 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
         <v>32</v>
       </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
         <v>29</v>
       </c>
-      <c r="F6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6">
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8">
         <v>7.0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>41</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>42</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15">
+        <v>12.0</v>
       </c>
     </row>
   </sheetData>

--- a/public/report/TripReport.xlsx
+++ b/public/report/TripReport.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -161,22 +161,19 @@
     <t>10:10 AM</t>
   </si>
   <si>
-    <t>13 Sep 2022</t>
-  </si>
-  <si>
-    <t>02:40 PM</t>
-  </si>
-  <si>
-    <t>15 Sep 2022</t>
-  </si>
-  <si>
-    <t>08:40 AM</t>
-  </si>
-  <si>
-    <t>11:40 AM</t>
+    <t>16 Sep 2022</t>
+  </si>
+  <si>
+    <t>08:45 AM</t>
   </si>
   <si>
     <t>11:45 AM</t>
+  </si>
+  <si>
+    <t>17 Sep 2022</t>
+  </si>
+  <si>
+    <t>07:00 AM</t>
   </si>
 </sst>
 </file>
@@ -515,7 +512,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -837,33 +834,33 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s">
         <v>48</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G13" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H13">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
@@ -872,45 +869,19 @@
         <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="H14">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15">
-        <v>44</v>
-      </c>
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" t="s">
-        <v>53</v>
-      </c>
-      <c r="G15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15">
-        <v>12.0</v>
+        <v>7.0</v>
       </c>
     </row>
   </sheetData>
